--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-21.47068891389275</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.36688051411572</v>
+        <v>-14.32880809745198</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5930578479635995</v>
+        <v>-0.6040161054421243</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.90689908831572</v>
+        <v>-10.85761966041946</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.79558985551883</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.55725568973726</v>
+        <v>-14.51897379622805</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5573682304170543</v>
+        <v>-0.5712460714292839</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.66115656397652</v>
+        <v>-10.61240082819393</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.03062686361884</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.87547720260825</v>
+        <v>-14.8367108938939</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4250312332928872</v>
+        <v>-0.4435961187224547</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.22950333928481</v>
+        <v>-10.17780183536284</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.26967855886018</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.3403717842151</v>
+        <v>-15.30388353619521</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3789856041985366</v>
+        <v>-0.3948403829398668</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.01526089558281</v>
+        <v>-9.959736439231047</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.53079663497589</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.80997959484497</v>
+        <v>-15.7716453321244</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3403109416040778</v>
+        <v>-0.3572131045727461</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.815498538823752</v>
+        <v>-9.759659867203789</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.85483704882057</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.30620405715208</v>
+        <v>-16.26475382635517</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.353730552016847</v>
+        <v>-0.3741414521470979</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.670632207880052</v>
+        <v>-9.616299151086888</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.2444118611263</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.82388680381677</v>
+        <v>-16.77993594317709</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1301140194801657</v>
+        <v>-0.1499750428910642</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.470123589859018</v>
+        <v>-9.414730056535674</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.71326017520553</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.44006294475976</v>
+        <v>-17.3956145766121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00416063846457681</v>
+        <v>-0.009651741033444192</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.457109840834342</v>
+        <v>-9.406599736470962</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.25209117079065</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.85637199052097</v>
+        <v>-17.81160940710511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1687308851850735</v>
+        <v>0.1537794753398223</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.173307992134246</v>
+        <v>-9.120336534836623</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.84134388780001</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.41975996640612</v>
+        <v>-18.37524613674426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3157050768862903</v>
+        <v>0.2903191016761835</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.084254148204826</v>
+        <v>-9.034909258794359</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.45926352841551</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.94304621868707</v>
+        <v>-18.89922628107582</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3623005826999934</v>
+        <v>0.3409208521594547</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.569451708165314</v>
+        <v>-8.519190357555928</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.06335855606732</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.71537425562333</v>
+        <v>-19.67404185555201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5001363470176855</v>
+        <v>0.4779448937009598</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.987407200730699</v>
+        <v>-7.938612188039586</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.63076299202922</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.54609396323369</v>
+        <v>-20.50389747117481</v>
       </c>
       <c r="F14" t="n">
-        <v>0.728898154571165</v>
+        <v>0.7071780241567415</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.443225633114355</v>
+        <v>-7.390987344775867</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.14650741863229</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.36597324409111</v>
+        <v>-21.32338398294697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8190124750307656</v>
+        <v>0.7940716381172774</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.884262855589702</v>
+        <v>-6.837745903593049</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.60154341236436</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.28348182723927</v>
+        <v>-22.24043433549567</v>
       </c>
       <c r="F16" t="n">
-        <v>1.081604793127265</v>
+        <v>1.054569187759101</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.423413795560944</v>
+        <v>-6.3695258770644</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.01033000103129</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.90290485928701</v>
+        <v>-22.85933367542975</v>
       </c>
       <c r="F17" t="n">
-        <v>1.246476162813122</v>
+        <v>1.219545295867691</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.300621087208396</v>
+        <v>-6.244559846440125</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.38722623355967</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.70474294682853</v>
+        <v>-23.66097537842864</v>
       </c>
       <c r="F18" t="n">
-        <v>1.574922764203504</v>
+        <v>1.545857851894872</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.85594102118917</v>
+        <v>-5.798086134931582</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.7493827090834</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.48954794837296</v>
+        <v>-24.44680157959472</v>
       </c>
       <c r="F19" t="n">
-        <v>1.812050553272846</v>
+        <v>1.787515577747451</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.640415531808675</v>
+        <v>-5.581447799809541</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.12238511987872</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.26592150688731</v>
+        <v>-25.2242487069421</v>
       </c>
       <c r="F20" t="n">
-        <v>2.012074756088737</v>
+        <v>1.986570950153055</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.403706696430268</v>
+        <v>-5.344385472254407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.52012532152575</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.8419959242261</v>
+        <v>-25.79869967872851</v>
       </c>
       <c r="F21" t="n">
-        <v>2.374810098621599</v>
+        <v>2.351401061140593</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.139412378964344</v>
+        <v>-5.08120400053003</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.968527393104141</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.4243808315346</v>
+        <v>-26.3799193710841</v>
       </c>
       <c r="F22" t="n">
-        <v>2.638174862585761</v>
+        <v>2.616991516587848</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.787857863058315</v>
+        <v>-4.738748635099001</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.489925199698774</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.93124933605202</v>
+        <v>-26.89088576639098</v>
       </c>
       <c r="F23" t="n">
-        <v>2.843409801932659</v>
+        <v>2.822069348300646</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.659081972307098</v>
+        <v>-4.605796299741272</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.09588392039457</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.14012393558892</v>
+        <v>-27.09598978270946</v>
       </c>
       <c r="F24" t="n">
-        <v>2.93474170655654</v>
+        <v>2.916674328634958</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.454069602108509</v>
+        <v>-4.410642433582503</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.798761773470948</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.47825884108218</v>
+        <v>-27.43527681085279</v>
       </c>
       <c r="F25" t="n">
-        <v>3.24413900731221</v>
+        <v>3.227773628760053</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.208196154740894</v>
+        <v>-4.166994677697982</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.597640920132603</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.44463780738463</v>
+        <v>-27.399194424221</v>
       </c>
       <c r="F26" t="n">
-        <v>3.298393510288323</v>
+        <v>3.284908438361345</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.190613192024456</v>
+        <v>-4.148194130817263</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.481433480259835</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.37409647967341</v>
+        <v>-27.32782828143075</v>
       </c>
       <c r="F27" t="n">
-        <v>3.30944341388674</v>
+        <v>3.29540846524041</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.09318027427633</v>
+        <v>-4.057045518433166</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.438403461205924</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.29433817076161</v>
+        <v>-27.2480830648218</v>
       </c>
       <c r="F28" t="n">
-        <v>3.396009720276233</v>
+        <v>3.379015911187672</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.111980821157049</v>
+        <v>-4.080389094399964</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.445002047953476</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.16664894114626</v>
+        <v>-27.12502851041241</v>
       </c>
       <c r="F29" t="n">
-        <v>3.385719170242636</v>
+        <v>3.372076990681558</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.030795451235505</v>
+        <v>-4.001560338989931</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.485107285003515</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.03465234389598</v>
+        <v>-26.99389600514968</v>
       </c>
       <c r="F30" t="n">
-        <v>3.368934837999543</v>
+        <v>3.351260229163213</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.9835715148854</v>
+        <v>-3.956025309706408</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.54571678749077</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.63682962974729</v>
+        <v>-26.59624349093794</v>
       </c>
       <c r="F31" t="n">
-        <v>3.258043032930123</v>
+        <v>3.243091623084872</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.153300128925536</v>
+        <v>-4.126539461917048</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.611244547439412</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.31081819668547</v>
+        <v>-26.27106996525799</v>
       </c>
       <c r="F32" t="n">
-        <v>3.217299786486672</v>
+        <v>3.20363142231991</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.267818501882114</v>
+        <v>-4.236959944084166</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.674918987449781</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.88160014032232</v>
+        <v>-25.84395976965236</v>
       </c>
       <c r="F33" t="n">
-        <v>3.115860624068978</v>
+        <v>3.102873059649986</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.410825725822288</v>
+        <v>-4.381642982788081</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.734299342129177</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.41283023707432</v>
+        <v>-25.37491492804468</v>
       </c>
       <c r="F34" t="n">
-        <v>3.042962681846248</v>
+        <v>3.024293057993946</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.33453687716355</v>
+        <v>-4.307200148830026</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.78788993853917</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.06080439826599</v>
+        <v>-25.01896139838383</v>
       </c>
       <c r="F35" t="n">
-        <v>2.810260091137408</v>
+        <v>2.791040590565755</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.463653167788652</v>
+        <v>-4.432375656299769</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.842411640863459</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.33329131395696</v>
+        <v>-24.29101626808102</v>
       </c>
       <c r="F36" t="n">
-        <v>2.696016656540507</v>
+        <v>2.676011617798349</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.798279336120329</v>
+        <v>-4.769607192896949</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.901993224724198</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.90251527355564</v>
+        <v>-23.85993910471435</v>
       </c>
       <c r="F37" t="n">
-        <v>2.538490068748859</v>
+        <v>2.519768075685191</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.909812664028993</v>
+        <v>-4.87739612219288</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.973566047296258</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.51997127682325</v>
+        <v>-23.48072055290375</v>
       </c>
       <c r="F38" t="n">
-        <v>2.497301684008788</v>
+        <v>2.477453752900732</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.022589760707622</v>
+        <v>-4.987868973571365</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.068408138299979</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.05443517237715</v>
+        <v>-23.01288020315751</v>
       </c>
       <c r="F39" t="n">
-        <v>2.399187966512893</v>
+        <v>2.386121848276851</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.962718659812409</v>
+        <v>-4.924449858606043</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.188862812164979</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.69310070624836</v>
+        <v>-22.6548973665562</v>
       </c>
       <c r="F40" t="n">
-        <v>2.425451126013396</v>
+        <v>2.405158056608721</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.007756181587946</v>
+        <v>-4.970796610665754</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.339348390388869</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.15080443024122</v>
+        <v>-22.11397578234744</v>
       </c>
       <c r="F41" t="n">
-        <v>2.45650606835397</v>
+        <v>2.442209273650805</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.972236763978343</v>
+        <v>-4.933352624538417</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.525606502322278</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.54872869945876</v>
+        <v>-21.51199169768488</v>
       </c>
       <c r="F42" t="n">
-        <v>2.60866481198051</v>
+        <v>2.594577494122813</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.985145774580285</v>
+        <v>-4.9442977897141</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.746320413082731</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.87668770229012</v>
+        <v>-20.84132539231462</v>
       </c>
       <c r="F43" t="n">
-        <v>2.711256097048276</v>
+        <v>2.696959302345111</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.966345227699566</v>
+        <v>-4.92306207450482</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.00381713983261</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.62085101245995</v>
+        <v>-20.5817704884774</v>
       </c>
       <c r="F44" t="n">
-        <v>2.668103866881947</v>
+        <v>2.654644979560652</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.061997592261218</v>
+        <v>-5.014956948150895</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.29147055107773</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.18960364915634</v>
+        <v>-20.1513741248585</v>
       </c>
       <c r="F45" t="n">
-        <v>2.742729993079785</v>
+        <v>2.72759529099475</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.039478831373448</v>
+        <v>-4.992935694771113</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.60000573459542</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.81549109545401</v>
+        <v>-19.77650221759135</v>
       </c>
       <c r="F46" t="n">
-        <v>2.814449628046761</v>
+        <v>2.792559297695395</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.128061352400567</v>
+        <v>-5.08234303087726</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.92636937011562</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.33275170507389</v>
+        <v>-19.2941294116908</v>
       </c>
       <c r="F47" t="n">
-        <v>2.80685609239856</v>
+        <v>2.794784989178488</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.430257886593288</v>
+        <v>-5.383138688665916</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.25947734024374</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.87075052239506</v>
+        <v>-18.82882896869586</v>
       </c>
       <c r="F48" t="n">
-        <v>2.789888467915683</v>
+        <v>2.768652752706403</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.549698965418355</v>
+        <v>-5.502946351970551</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.59380315240731</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.34089193408757</v>
+        <v>-18.30302899426929</v>
       </c>
       <c r="F49" t="n">
-        <v>2.789417145013381</v>
+        <v>2.775827334663669</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.845532640429997</v>
+        <v>-5.795781889631439</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.92772095336622</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.85457834503165</v>
+        <v>-17.81200217619036</v>
       </c>
       <c r="F50" t="n">
-        <v>2.845295093541867</v>
+        <v>2.832935959659278</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.90752469438557</v>
+        <v>-5.860536419486616</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.25394395170983</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.16357969334819</v>
+        <v>-17.12311138526442</v>
       </c>
       <c r="F51" t="n">
-        <v>2.821362363947192</v>
+        <v>2.809788768235106</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.17557650276707</v>
+        <v>-6.12733136679531</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.57416633296046</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.78751638652245</v>
+        <v>-16.74168023427357</v>
       </c>
       <c r="F52" t="n">
-        <v>2.696173764174608</v>
+        <v>2.682924353698781</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.253960119880484</v>
+        <v>-6.20758718321509</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.88390469622444</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.34104267501391</v>
+        <v>-16.2935045233956</v>
       </c>
       <c r="F53" t="n">
-        <v>2.766296138194893</v>
+        <v>2.75414648115777</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.317405419451489</v>
+        <v>-6.271268144237245</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.17851188981711</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.05116599779525</v>
+        <v>-16.00607610680835</v>
       </c>
       <c r="F54" t="n">
-        <v>2.519322937388572</v>
+        <v>2.507513680225335</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.59692608512234</v>
+        <v>-6.549008256721622</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.46193009341406</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.66873983178843</v>
+        <v>-15.62118858786728</v>
       </c>
       <c r="F55" t="n">
-        <v>2.401754057869872</v>
+        <v>2.385729079191599</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.775007588375498</v>
+        <v>-6.728739390132838</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.72727376202163</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.27966277593802</v>
+        <v>-15.23122125542363</v>
       </c>
       <c r="F56" t="n">
-        <v>2.297513142644049</v>
+        <v>2.284865978098941</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.954228121975886</v>
+        <v>-6.909622646194125</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.9733499137303</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.735206269962</v>
+        <v>-14.68828345657725</v>
       </c>
       <c r="F57" t="n">
-        <v>2.248678853044411</v>
+        <v>2.235219965723116</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.235162756353644</v>
+        <v>-7.189195681076344</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.19973435465375</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.49032783761035</v>
+        <v>-14.43871797980827</v>
       </c>
       <c r="F58" t="n">
-        <v>2.074839255911972</v>
+        <v>2.062584860452116</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.210169550228789</v>
+        <v>-7.164307213374222</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.40114624336552</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.10667099513641</v>
+        <v>-14.05731301342311</v>
       </c>
       <c r="F59" t="n">
-        <v>2.126187267657222</v>
+        <v>2.111576257685855</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.35876718748238</v>
+        <v>-7.31211931245731</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.58137424649788</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.01092698445487</v>
+        <v>-13.96145117201599</v>
       </c>
       <c r="F60" t="n">
-        <v>1.942606997210538</v>
+        <v>1.92752466433687</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.304329392266482</v>
+        <v>-7.256686502225442</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.73601963670572</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.70768306603481</v>
+        <v>-13.65784066911636</v>
       </c>
       <c r="F61" t="n">
-        <v>1.835642882993636</v>
+        <v>1.82095331920522</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.607887525954744</v>
+        <v>-7.566476572066364</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.86311516820658</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.39502578187155</v>
+        <v>-13.34403126230303</v>
       </c>
       <c r="F62" t="n">
-        <v>1.764734970802848</v>
+        <v>1.750385806888316</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.72262846805963</v>
+        <v>-7.675496177829417</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.96807362865331</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.0417692665961</v>
+        <v>-12.99015940879401</v>
       </c>
       <c r="F63" t="n">
-        <v>1.695188658107599</v>
+        <v>1.681441740123787</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.804154237855059</v>
+        <v>-7.757192147561788</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.04610463900862</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.82214588642614</v>
+        <v>-12.77015635184165</v>
       </c>
       <c r="F64" t="n">
-        <v>1.586784390578107</v>
+        <v>1.571309288619187</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.977574881296563</v>
+        <v>-7.928452561034407</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.10119013882558</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.61329747149493</v>
+        <v>-12.55913461463871</v>
       </c>
       <c r="F65" t="n">
-        <v>1.523574752458254</v>
+        <v>1.508963742486888</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.207973226705258</v>
+        <v>-8.161168244046086</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.13604956835514</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.37851320463425</v>
+        <v>-12.32178425642106</v>
       </c>
       <c r="F66" t="n">
-        <v>1.447220442285307</v>
+        <v>1.435018416036819</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.297328193600038</v>
+        <v>-8.250300641792558</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.15225212720852</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.20078519355782</v>
+        <v>-12.14537856793164</v>
       </c>
       <c r="F67" t="n">
-        <v>1.479636984121421</v>
+        <v>1.467880096169551</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.243112967532451</v>
+        <v>-8.192838524620223</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.15979382686333</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.10323444508412</v>
+        <v>-12.04661023529366</v>
       </c>
       <c r="F68" t="n">
-        <v>1.350677801130419</v>
+        <v>1.337061806175024</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.248153504126515</v>
+        <v>-8.19865150708195</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.15854108726234</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.97253398581517</v>
+        <v>-11.91606688365881</v>
       </c>
       <c r="F69" t="n">
-        <v>1.218812126908555</v>
+        <v>1.208953622868735</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.294722825334535</v>
+        <v>-8.246739535419609</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.15174546572657</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.86992960844456</v>
+        <v>-11.81477173657237</v>
       </c>
       <c r="F70" t="n">
-        <v>1.304553618219018</v>
+        <v>1.289026147048731</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.236357339266119</v>
+        <v>-8.187640880392058</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.14752955867136</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.61229927312508</v>
+        <v>-11.55621184775112</v>
       </c>
       <c r="F71" t="n">
-        <v>1.235347705397654</v>
+        <v>1.220762880031972</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.084329518667996</v>
+        <v>-8.039815689006128</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.14179066818684</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.57334967217094</v>
+        <v>-11.51857147708116</v>
       </c>
       <c r="F72" t="n">
-        <v>1.259594650260531</v>
+        <v>1.247510454737618</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.080113797152961</v>
+        <v>-8.037694735945768</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.1372974973097</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.55845063153706</v>
+        <v>-11.50583266641616</v>
       </c>
       <c r="F73" t="n">
-        <v>1.210341406969958</v>
+        <v>1.19935696488575</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.969654038077318</v>
+        <v>-7.926960038510449</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.12925662137731</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.74251531718889</v>
+        <v>-11.69372030449777</v>
       </c>
       <c r="F74" t="n">
-        <v>1.259070958146862</v>
+        <v>1.250128915305963</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.851653112564841</v>
+        <v>-7.810425450916246</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.11235229469451</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.87249569980154</v>
+        <v>-11.823818517836</v>
       </c>
       <c r="F75" t="n">
-        <v>1.198780903560714</v>
+        <v>1.183410540024527</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.691062925908229</v>
+        <v>-7.6515503559319</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.08723769530248</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.20116487034023</v>
+        <v>-12.15261861140311</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21422982091395</v>
+        <v>1.200679287472764</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.505178410161403</v>
+        <v>-7.463348502582088</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.04407611350635</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.79168009771345</v>
+        <v>-12.74583085316172</v>
       </c>
       <c r="F77" t="n">
-        <v>1.190048337565282</v>
+        <v>1.177623742168484</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.321807616560188</v>
+        <v>-7.280540678003066</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.97960482677426</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.32096262469591</v>
+        <v>-13.27503482632713</v>
       </c>
       <c r="F78" t="n">
-        <v>1.211349514288771</v>
+        <v>1.201517194854634</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.189876480824114</v>
+        <v>-7.151031618292713</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.89483889273178</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.82420456132617</v>
+        <v>-13.78102614655416</v>
       </c>
       <c r="F79" t="n">
-        <v>1.230857045522942</v>
+        <v>1.221221110631432</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.993374107472647</v>
+        <v>-6.951177615413764</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.78278672167834</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.3604129165119</v>
+        <v>-14.31832116287576</v>
       </c>
       <c r="F80" t="n">
-        <v>1.295781775315062</v>
+        <v>1.279180735311753</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.756481979854455</v>
+        <v>-6.714756810697875</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.64634797967994</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.12390364903</v>
+        <v>-15.08287237192403</v>
       </c>
       <c r="F81" t="n">
-        <v>1.305758110080457</v>
+        <v>1.297994374495314</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.639358238632374</v>
+        <v>-6.599295791936692</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.48168898741831</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.88147666066364</v>
+        <v>-15.84426833598745</v>
       </c>
       <c r="F82" t="n">
-        <v>1.339235128446751</v>
+        <v>1.327425871283514</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.539189029590328</v>
+        <v>-6.498681444598027</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.28994676393916</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.73694082064486</v>
+        <v>-16.69994197281414</v>
       </c>
       <c r="F83" t="n">
-        <v>1.286329132663336</v>
+        <v>1.275711275058696</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.287803722726346</v>
+        <v>-6.243342262275844</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.07762795338391</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.81411003694788</v>
+        <v>-17.77839423479565</v>
       </c>
       <c r="F84" t="n">
-        <v>1.386576895522432</v>
+        <v>1.374820007570562</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.108033312406605</v>
+        <v>-6.065967743376139</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.84224039825223</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.62752172020148</v>
+        <v>-18.59122985672421</v>
       </c>
       <c r="F85" t="n">
-        <v>1.365184072679052</v>
+        <v>1.35143715469524</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.894288376212585</v>
+        <v>-5.853270191409457</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.58840441318891</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.68537978981294</v>
+        <v>-19.6477132345373</v>
       </c>
       <c r="F86" t="n">
-        <v>1.382046958739195</v>
+        <v>1.368247671544016</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.604856837290547</v>
+        <v>-5.56247705299188</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.32056791629256</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.76552095886102</v>
+        <v>-20.72786749588822</v>
       </c>
       <c r="F87" t="n">
-        <v>1.411426086316028</v>
+        <v>1.39710310700718</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.309232639124373</v>
+        <v>-5.267350362333691</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.0354907290643</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.12146457957291</v>
+        <v>-22.08560476208942</v>
       </c>
       <c r="F88" t="n">
-        <v>1.464318989796602</v>
+        <v>1.446670565565955</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.050960780965642</v>
+        <v>-5.006460043606616</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.73747606548881</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.58757992869792</v>
+        <v>-23.54974317348533</v>
       </c>
       <c r="F89" t="n">
-        <v>1.265590924962042</v>
+        <v>1.248806592718949</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.677947980702025</v>
+        <v>-4.635070688895372</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.42022929590715</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.09053701801955</v>
+        <v>-25.0539047546684</v>
       </c>
       <c r="F90" t="n">
-        <v>1.125843684429458</v>
+        <v>1.110499505498955</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.493555987479155</v>
+        <v>-4.448819588668977</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.08417270998642</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.66921998697772</v>
+        <v>-26.63438136911589</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9521350103254362</v>
+        <v>0.9369872159375592</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.453179325515272</v>
+        <v>-4.406649281215778</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.73128966957354</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.37408657072445</v>
+        <v>-28.34074047538657</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8812925596488564</v>
+        <v>0.8652675809705838</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.2096101234478</v>
+        <v>-4.165567616688233</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.35641878222781</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.29030219924516</v>
+        <v>-30.25877593400228</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7779157364105874</v>
+        <v>0.7603196813913076</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.270934469958445</v>
+        <v>-4.223815272031072</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.96387909793346</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.44237566345956</v>
+        <v>-32.41297035127705</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7295004005018845</v>
+        <v>0.7118912531797629</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.294500615073551</v>
+        <v>-4.250628308250928</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.55827282708982</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.54078377832573</v>
+        <v>-34.5109333278466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3105205249609668</v>
+        <v>0.295791684264025</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.3197425749524</v>
+        <v>-4.275529868255891</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.14286130266097</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.56892550384036</v>
+        <v>-36.53657442351845</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07178238264209195</v>
+        <v>0.05646438831727246</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.497130186154946</v>
+        <v>-4.456688062676855</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.731427906191488</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.72319847493218</v>
+        <v>-38.68913230293801</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2488088370432543</v>
+        <v>-0.2655800769835054</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.592455243145554</v>
+        <v>-4.550140920361095</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.329850611472994</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.07900126366668</v>
+        <v>-41.04366513829687</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5170308453616962</v>
+        <v>-0.534247223598566</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.817747590445975</v>
+        <v>-4.775629652204143</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.953925341626451</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.49858975184608</v>
+        <v>-43.46212768843187</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4106427924698302</v>
+        <v>-0.4261571713372756</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.134947903695315</v>
+        <v>-5.094296303371755</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.618806970327938</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.96976191322187</v>
+        <v>-45.93220009636896</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5384367605079183</v>
+        <v>-0.5541213393123062</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.364717818567607</v>
+        <v>-5.327902262976674</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.334452759059392</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.38505612606918</v>
+        <v>-48.34700989401112</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5761295003892477</v>
+        <v>-0.5918140791936355</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.726824730564067</v>
+        <v>-5.688529744752018</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.111031785750983</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.66644226545132</v>
+        <v>-50.63090975553887</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7006896696254296</v>
+        <v>-0.7153530488081628</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.024674620213335</v>
+        <v>-5.985672650047833</v>
       </c>
     </row>
   </sheetData>
